--- a/data/pca/factorExposure/factorExposure_2009-04-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01737457014311215</v>
+        <v>0.01673148886679625</v>
       </c>
       <c r="C2">
-        <v>-0.002062572057054404</v>
+        <v>-0.001318117374490267</v>
       </c>
       <c r="D2">
-        <v>0.007603961239447768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008765281692751328</v>
+      </c>
+      <c r="E2">
+        <v>0.0003574135248802668</v>
+      </c>
+      <c r="F2">
+        <v>0.01985750145562248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08737762494575486</v>
+        <v>0.09030585318461599</v>
       </c>
       <c r="C4">
-        <v>-0.02040686303891264</v>
+        <v>-0.01576118417566424</v>
       </c>
       <c r="D4">
-        <v>0.08072908793121368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0839709689079919</v>
+      </c>
+      <c r="E4">
+        <v>0.0321745190374954</v>
+      </c>
+      <c r="F4">
+        <v>-0.03590722018263265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0002960524269415919</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0001003142386052754</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-8.900878781506655e-05</v>
+      </c>
+      <c r="E5">
+        <v>2.580605663696795e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.000378285700399256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1571288176598553</v>
+        <v>0.1646547414353911</v>
       </c>
       <c r="C6">
-        <v>-0.034835330090795</v>
+        <v>-0.03313800116963875</v>
       </c>
       <c r="D6">
-        <v>-0.0294886591113865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0204064785808351</v>
+      </c>
+      <c r="E6">
+        <v>0.01614411970264694</v>
+      </c>
+      <c r="F6">
+        <v>-0.05806640889258565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05757231383745122</v>
+        <v>0.06095286188246493</v>
       </c>
       <c r="C7">
-        <v>-0.00205336929601432</v>
+        <v>0.001195277558198932</v>
       </c>
       <c r="D7">
-        <v>0.04757072757633462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05267949577162779</v>
+      </c>
+      <c r="E7">
+        <v>0.01954203998652806</v>
+      </c>
+      <c r="F7">
+        <v>-0.0437137307099155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05851317840013864</v>
+        <v>0.05482110667585952</v>
       </c>
       <c r="C8">
-        <v>0.009746682267516533</v>
+        <v>0.01197803372796132</v>
       </c>
       <c r="D8">
-        <v>0.02518076756273575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03005861593966993</v>
+      </c>
+      <c r="E8">
+        <v>0.01333569552895294</v>
+      </c>
+      <c r="F8">
+        <v>0.03696289273250465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06837598636288397</v>
+        <v>0.07050299242745579</v>
       </c>
       <c r="C9">
-        <v>-0.01624227273388921</v>
+        <v>-0.01127178544344851</v>
       </c>
       <c r="D9">
-        <v>0.08433620951367535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08800909815066607</v>
+      </c>
+      <c r="E9">
+        <v>0.03051098911849964</v>
+      </c>
+      <c r="F9">
+        <v>-0.05539823081935048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08838915705196487</v>
+        <v>0.08801855006880609</v>
       </c>
       <c r="C10">
-        <v>-0.02022330700362049</v>
+        <v>-0.02382407861351015</v>
       </c>
       <c r="D10">
-        <v>-0.1679813744730046</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.158465415085743</v>
+      </c>
+      <c r="E10">
+        <v>-0.03701256117471271</v>
+      </c>
+      <c r="F10">
+        <v>0.07740456296300359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0887564828050624</v>
+        <v>0.08571963501830282</v>
       </c>
       <c r="C11">
-        <v>-0.01762896923400487</v>
+        <v>-0.01227728609389507</v>
       </c>
       <c r="D11">
-        <v>0.1158951435462257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1203137836490084</v>
+      </c>
+      <c r="E11">
+        <v>0.05581820928063306</v>
+      </c>
+      <c r="F11">
+        <v>-0.003845893098803353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09541482985943256</v>
+        <v>0.08998596374794127</v>
       </c>
       <c r="C12">
-        <v>-0.01622110141825967</v>
+        <v>-0.01005425125835191</v>
       </c>
       <c r="D12">
-        <v>0.1231721385981144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1361246143278971</v>
+      </c>
+      <c r="E12">
+        <v>0.05953793075967576</v>
+      </c>
+      <c r="F12">
+        <v>-0.009054708693608414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04466112183920328</v>
+        <v>0.04490067187687975</v>
       </c>
       <c r="C13">
-        <v>-0.007239648802761932</v>
+        <v>-0.00394003354532499</v>
       </c>
       <c r="D13">
-        <v>0.04961671875378078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05615053371131886</v>
+      </c>
+      <c r="E13">
+        <v>-0.0004378582915071508</v>
+      </c>
+      <c r="F13">
+        <v>-0.006352711815172539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01795346829004531</v>
+        <v>0.02150825997806014</v>
       </c>
       <c r="C14">
-        <v>-0.01454198035090375</v>
+        <v>-0.01362059057441979</v>
       </c>
       <c r="D14">
-        <v>0.03367042914548684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03354026215745951</v>
+      </c>
+      <c r="E14">
+        <v>0.02236246156188347</v>
+      </c>
+      <c r="F14">
+        <v>-0.01184357566047926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03433964043257807</v>
+        <v>0.03471670720226846</v>
       </c>
       <c r="C15">
-        <v>-0.008354557929111302</v>
+        <v>-0.00637254950970549</v>
       </c>
       <c r="D15">
-        <v>0.04836110907748349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04849745815058324</v>
+      </c>
+      <c r="E15">
+        <v>0.01168592724910661</v>
+      </c>
+      <c r="F15">
+        <v>-0.02735874132794705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0716764086839784</v>
+        <v>0.06975456914103484</v>
       </c>
       <c r="C16">
-        <v>-0.007202691217178861</v>
+        <v>-0.001670441684675197</v>
       </c>
       <c r="D16">
-        <v>0.1187156241795461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1306583261272578</v>
+      </c>
+      <c r="E16">
+        <v>0.0701528506927566</v>
+      </c>
+      <c r="F16">
+        <v>-0.006196200105792691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001935281179872665</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0007778609766523503</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001735808893191638</v>
+      </c>
+      <c r="E17">
+        <v>0.004752306152026846</v>
+      </c>
+      <c r="F17">
+        <v>0.003978860964592551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02729321284307359</v>
+        <v>0.04521134600562663</v>
       </c>
       <c r="C18">
-        <v>0.0008017818812945804</v>
+        <v>0.0006332668898887101</v>
       </c>
       <c r="D18">
-        <v>0.02247145014638555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01880958385651281</v>
+      </c>
+      <c r="E18">
+        <v>-0.005487476299887453</v>
+      </c>
+      <c r="F18">
+        <v>0.01275251826337066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06295039044749567</v>
+        <v>0.06196247920688801</v>
       </c>
       <c r="C20">
-        <v>-0.005870638969105041</v>
+        <v>-0.002146354555718405</v>
       </c>
       <c r="D20">
-        <v>0.07545247783177647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07927551049532007</v>
+      </c>
+      <c r="E20">
+        <v>0.064835928232642</v>
+      </c>
+      <c r="F20">
+        <v>-0.02871032149666857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04071269596909455</v>
+        <v>0.04258081971058882</v>
       </c>
       <c r="C21">
-        <v>-0.0100785918381891</v>
+        <v>-0.00777535888611801</v>
       </c>
       <c r="D21">
-        <v>0.03796545944140592</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03723293842795143</v>
+      </c>
+      <c r="E21">
+        <v>0.000590181472734288</v>
+      </c>
+      <c r="F21">
+        <v>0.02614733258679043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04310753128664951</v>
+        <v>0.04419564942219626</v>
       </c>
       <c r="C22">
-        <v>-0.002532205876558592</v>
+        <v>-0.001906508921233094</v>
       </c>
       <c r="D22">
-        <v>0.003473135132695062</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.009714878534922245</v>
+      </c>
+      <c r="E22">
+        <v>0.02926890137793867</v>
+      </c>
+      <c r="F22">
+        <v>0.08567879907164948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04311604051753651</v>
+        <v>0.04420291705187999</v>
       </c>
       <c r="C23">
-        <v>-0.002534370399155803</v>
+        <v>-0.001908622520112457</v>
       </c>
       <c r="D23">
-        <v>0.003464112459954001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.009708106449069259</v>
+      </c>
+      <c r="E23">
+        <v>0.02927667364146891</v>
+      </c>
+      <c r="F23">
+        <v>0.08571919745923566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0791992314676834</v>
+        <v>0.07599528841854168</v>
       </c>
       <c r="C24">
-        <v>-0.008002896637918403</v>
+        <v>-0.00263173703803615</v>
       </c>
       <c r="D24">
-        <v>0.1202644535577917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1242877165378462</v>
+      </c>
+      <c r="E24">
+        <v>0.05451880817824719</v>
+      </c>
+      <c r="F24">
+        <v>-0.01764653509095739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08375778314873968</v>
+        <v>0.08055764942794721</v>
       </c>
       <c r="C25">
-        <v>-0.01034434120478302</v>
+        <v>-0.005463971003625339</v>
       </c>
       <c r="D25">
-        <v>0.1075597601586129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1119358758970882</v>
+      </c>
+      <c r="E25">
+        <v>0.04057137961501807</v>
+      </c>
+      <c r="F25">
+        <v>-0.01075435837432329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05723509851532084</v>
+        <v>0.0613717025053261</v>
       </c>
       <c r="C26">
-        <v>-0.01883521070132692</v>
+        <v>-0.01572274244584117</v>
       </c>
       <c r="D26">
-        <v>0.04062665901865024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0490881128834158</v>
+      </c>
+      <c r="E26">
+        <v>0.02861921491640274</v>
+      </c>
+      <c r="F26">
+        <v>0.02000457089300891</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1412284227327504</v>
+        <v>0.1483214107121303</v>
       </c>
       <c r="C28">
-        <v>-0.02186469240862268</v>
+        <v>-0.02818934100088741</v>
       </c>
       <c r="D28">
-        <v>-0.2594091240490972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2547532071832087</v>
+      </c>
+      <c r="E28">
+        <v>-0.06175295249419412</v>
+      </c>
+      <c r="F28">
+        <v>-0.00505024871060331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0252282229009273</v>
+        <v>0.02763330945846447</v>
       </c>
       <c r="C29">
-        <v>-0.009562811912524035</v>
+        <v>-0.009059526325272601</v>
       </c>
       <c r="D29">
-        <v>0.03199400477185112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03100476980573615</v>
+      </c>
+      <c r="E29">
+        <v>0.01667789899112406</v>
+      </c>
+      <c r="F29">
+        <v>0.02610826798696032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05576456731705835</v>
+        <v>0.0531689071931994</v>
       </c>
       <c r="C30">
-        <v>-0.007181923105834593</v>
+        <v>-0.002622294809801458</v>
       </c>
       <c r="D30">
-        <v>0.08145061244730681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08811509608671933</v>
+      </c>
+      <c r="E30">
+        <v>0.0223639368216605</v>
+      </c>
+      <c r="F30">
+        <v>-0.0992191674883145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05126205716516993</v>
+        <v>0.05161949815174006</v>
       </c>
       <c r="C31">
-        <v>-0.01861814390920445</v>
+        <v>-0.01697932776307568</v>
       </c>
       <c r="D31">
-        <v>0.02427018129086123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02670348782759605</v>
+      </c>
+      <c r="E31">
+        <v>0.02925542832246565</v>
+      </c>
+      <c r="F31">
+        <v>0.01137737478956782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04553352616193463</v>
+        <v>0.05023927071492502</v>
       </c>
       <c r="C32">
-        <v>-0.002104760851939623</v>
+        <v>0.001168713618202081</v>
       </c>
       <c r="D32">
-        <v>0.03237095795412264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03582398293145719</v>
+      </c>
+      <c r="E32">
+        <v>0.03163584138500276</v>
+      </c>
+      <c r="F32">
+        <v>0.002694853538292925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0891782129389327</v>
+        <v>0.08989900857161043</v>
       </c>
       <c r="C33">
-        <v>-0.01406308598589179</v>
+        <v>-0.008467054566388662</v>
       </c>
       <c r="D33">
-        <v>0.09395554734615677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.106274744328486</v>
+      </c>
+      <c r="E33">
+        <v>0.0570643823009053</v>
+      </c>
+      <c r="F33">
+        <v>-0.02325360278482538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06694489680494044</v>
+        <v>0.06580465890113206</v>
       </c>
       <c r="C34">
-        <v>-0.01593503582298438</v>
+        <v>-0.01103717680890336</v>
       </c>
       <c r="D34">
-        <v>0.1014490398667432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1125506166244785</v>
+      </c>
+      <c r="E34">
+        <v>0.04313343512441137</v>
+      </c>
+      <c r="F34">
+        <v>-0.02921694983811502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02658419566095276</v>
+        <v>0.02784181287385131</v>
       </c>
       <c r="C35">
-        <v>-0.004579840483408007</v>
+        <v>-0.004105396139539252</v>
       </c>
       <c r="D35">
-        <v>0.009477420508070673</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01191607340750454</v>
+      </c>
+      <c r="E35">
+        <v>0.01770681335453185</v>
+      </c>
+      <c r="F35">
+        <v>0.006674715198557488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02360005904721437</v>
+        <v>0.02807146924873593</v>
       </c>
       <c r="C36">
-        <v>-0.008548446581899986</v>
+        <v>-0.007422795012038748</v>
       </c>
       <c r="D36">
-        <v>0.03985361100275562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04115363231386301</v>
+      </c>
+      <c r="E36">
+        <v>0.020100654275769</v>
+      </c>
+      <c r="F36">
+        <v>-0.01417356859584811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002459878818902047</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007882978009243828</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00309473504547638</v>
+      </c>
+      <c r="E37">
+        <v>0.0006980064093696438</v>
+      </c>
+      <c r="F37">
+        <v>0.001563175271501528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1062588256882244</v>
+        <v>0.09620748330066099</v>
       </c>
       <c r="C39">
-        <v>-0.02314643432412686</v>
+        <v>-0.01664070476835451</v>
       </c>
       <c r="D39">
-        <v>0.1540102862861485</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538063343535867</v>
+      </c>
+      <c r="E39">
+        <v>0.07015194338084871</v>
+      </c>
+      <c r="F39">
+        <v>0.007419225385335686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04212998594790281</v>
+        <v>0.04688329552757824</v>
       </c>
       <c r="C40">
-        <v>-0.01103755523202104</v>
+        <v>-0.009682229544642691</v>
       </c>
       <c r="D40">
-        <v>0.0281047722017449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03442072430821113</v>
+      </c>
+      <c r="E40">
+        <v>0.001257625173643448</v>
+      </c>
+      <c r="F40">
+        <v>0.03147453100973373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02512922880188053</v>
+        <v>0.02779580163116618</v>
       </c>
       <c r="C41">
-        <v>-0.008005996364823279</v>
+        <v>-0.007478305875698954</v>
       </c>
       <c r="D41">
-        <v>0.009797309277225792</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01091663003674808</v>
+      </c>
+      <c r="E41">
+        <v>0.01166667781159191</v>
+      </c>
+      <c r="F41">
+        <v>0.01368218522541046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04058123188245948</v>
+        <v>0.03930039241884171</v>
       </c>
       <c r="C43">
-        <v>-0.008844460583596893</v>
+        <v>-0.007997130332590944</v>
       </c>
       <c r="D43">
-        <v>0.02018631645630966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02153773483876834</v>
+      </c>
+      <c r="E43">
+        <v>0.02689306915458069</v>
+      </c>
+      <c r="F43">
+        <v>0.02782862837562277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06172130703923061</v>
+        <v>0.07273754976827954</v>
       </c>
       <c r="C44">
-        <v>-0.02281979235169528</v>
+        <v>-0.01906980540736269</v>
       </c>
       <c r="D44">
-        <v>0.09175241031717021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09125905078591695</v>
+      </c>
+      <c r="E44">
+        <v>0.07802224529573099</v>
+      </c>
+      <c r="F44">
+        <v>-0.1894893744043149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>5.124751579263485e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2.451542528644926e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.946623780939848e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001530655596861939</v>
+      </c>
+      <c r="F45">
+        <v>-5.137139310170626e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0216860075727865</v>
+        <v>0.02473948158943232</v>
       </c>
       <c r="C46">
-        <v>-0.004576153155616319</v>
+        <v>-0.003927722700376391</v>
       </c>
       <c r="D46">
-        <v>0.01371301925257118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01525083370805537</v>
+      </c>
+      <c r="E46">
+        <v>0.03345337167630671</v>
+      </c>
+      <c r="F46">
+        <v>0.02897865019893182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05412486127781548</v>
+        <v>0.05305514206881313</v>
       </c>
       <c r="C47">
-        <v>-0.006932333331301932</v>
+        <v>-0.005420993954047259</v>
       </c>
       <c r="D47">
-        <v>0.008816444239087449</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01292223765210201</v>
+      </c>
+      <c r="E47">
+        <v>0.02397050279767901</v>
+      </c>
+      <c r="F47">
+        <v>0.04618414260305729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04860131019833592</v>
+        <v>0.05170097727997235</v>
       </c>
       <c r="C48">
-        <v>-0.005810924750230936</v>
+        <v>-0.003151546214715623</v>
       </c>
       <c r="D48">
-        <v>0.05068354013750113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05337048439009304</v>
+      </c>
+      <c r="E48">
+        <v>-0.001245942311399487</v>
+      </c>
+      <c r="F48">
+        <v>-0.01062452349942067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.197024200993748</v>
+        <v>0.1991442260793219</v>
       </c>
       <c r="C49">
-        <v>-0.02765568624495271</v>
+        <v>-0.02389257432395003</v>
       </c>
       <c r="D49">
-        <v>-0.01071663438986787</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003462948914502229</v>
+      </c>
+      <c r="E49">
+        <v>0.02427186388105757</v>
+      </c>
+      <c r="F49">
+        <v>-0.06807351842236539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04950385939821535</v>
+        <v>0.05212498270789573</v>
       </c>
       <c r="C50">
-        <v>-0.01429205937403327</v>
+        <v>-0.01279853978312763</v>
       </c>
       <c r="D50">
-        <v>0.02474279175354568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02675246450621461</v>
+      </c>
+      <c r="E50">
+        <v>0.03076253101337483</v>
+      </c>
+      <c r="F50">
+        <v>-0.00634505862894615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1526087501834333</v>
+        <v>0.1459234404378973</v>
       </c>
       <c r="C52">
-        <v>-0.02404138132473635</v>
+        <v>-0.02081631898416737</v>
       </c>
       <c r="D52">
-        <v>0.04155842566250381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04438324726178928</v>
+      </c>
+      <c r="E52">
+        <v>0.03156411498704815</v>
+      </c>
+      <c r="F52">
+        <v>-0.0439762741864602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1750525718842711</v>
+        <v>0.1679218530500331</v>
       </c>
       <c r="C53">
-        <v>-0.02677370657316512</v>
+        <v>-0.02479243918432913</v>
       </c>
       <c r="D53">
-        <v>0.004831738315862753</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008552944607856217</v>
+      </c>
+      <c r="E53">
+        <v>0.04032357611971828</v>
+      </c>
+      <c r="F53">
+        <v>-0.09689891593709191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01469674957190711</v>
+        <v>0.01801777113839807</v>
       </c>
       <c r="C54">
-        <v>-0.01204170772294191</v>
+        <v>-0.01115219594218989</v>
       </c>
       <c r="D54">
-        <v>0.02938010750783341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02877519496592944</v>
+      </c>
+      <c r="E54">
+        <v>0.0193834651100443</v>
+      </c>
+      <c r="F54">
+        <v>0.007533400072187631</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1185105763781471</v>
+        <v>0.1164504628621963</v>
       </c>
       <c r="C55">
-        <v>-0.02289418816642144</v>
+        <v>-0.02145589505310113</v>
       </c>
       <c r="D55">
-        <v>0.004586774272668879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01187063142495973</v>
+      </c>
+      <c r="E55">
+        <v>0.03908290573176402</v>
+      </c>
+      <c r="F55">
+        <v>-0.03414080030310536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1808089680526729</v>
+        <v>0.1750198954400599</v>
       </c>
       <c r="C56">
-        <v>-0.02471674290099395</v>
+        <v>-0.02312812167808528</v>
       </c>
       <c r="D56">
-        <v>-0.004535432732210296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0006256666468381348</v>
+      </c>
+      <c r="E56">
+        <v>0.04036862885457247</v>
+      </c>
+      <c r="F56">
+        <v>-0.05575992360817036</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04575193672620181</v>
+        <v>0.04431530303577003</v>
       </c>
       <c r="C58">
-        <v>-0.004500948685414861</v>
+        <v>1.285448578199031e-05</v>
       </c>
       <c r="D58">
-        <v>0.06847074305474248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0778034937651285</v>
+      </c>
+      <c r="E58">
+        <v>0.0359812053389484</v>
+      </c>
+      <c r="F58">
+        <v>0.05256104660826609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1651571605621467</v>
+        <v>0.1715508841475905</v>
       </c>
       <c r="C59">
-        <v>-0.02337482498025138</v>
+        <v>-0.02843619976587288</v>
       </c>
       <c r="D59">
-        <v>-0.2185141869336642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2147751545594831</v>
+      </c>
+      <c r="E59">
+        <v>-0.05417187145341769</v>
+      </c>
+      <c r="F59">
+        <v>0.06402646611998392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2333576533272404</v>
+        <v>0.2262769860053626</v>
       </c>
       <c r="C60">
-        <v>-0.008249512025054374</v>
+        <v>-0.003321688522116519</v>
       </c>
       <c r="D60">
-        <v>0.03701075185215191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03844581115609944</v>
+      </c>
+      <c r="E60">
+        <v>-0.00615814283323199</v>
+      </c>
+      <c r="F60">
+        <v>-0.02319693051695058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07702303394600335</v>
+        <v>0.07237399601132928</v>
       </c>
       <c r="C61">
-        <v>-0.01673814972795685</v>
+        <v>-0.01115732065914483</v>
       </c>
       <c r="D61">
-        <v>0.1139453759395756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1182189177944428</v>
+      </c>
+      <c r="E61">
+        <v>0.0457584060962118</v>
+      </c>
+      <c r="F61">
+        <v>0.014085895210387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1724847614346592</v>
+        <v>0.1679541828238589</v>
       </c>
       <c r="C62">
-        <v>-0.02797846385488326</v>
+        <v>-0.02544569641029201</v>
       </c>
       <c r="D62">
-        <v>0.002232783252594016</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.010023383247423</v>
+      </c>
+      <c r="E62">
+        <v>0.04244294166044778</v>
+      </c>
+      <c r="F62">
+        <v>-0.03637754014422839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04287513097911626</v>
+        <v>0.04709828518319047</v>
       </c>
       <c r="C63">
-        <v>-0.005929408174619836</v>
+        <v>-0.003282281674998253</v>
       </c>
       <c r="D63">
-        <v>0.05559877639658767</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06426558077418154</v>
+      </c>
+      <c r="E63">
+        <v>0.02543108819612066</v>
+      </c>
+      <c r="F63">
+        <v>0.01004316549901092</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1143098425896102</v>
+        <v>0.1116599305526944</v>
       </c>
       <c r="C64">
-        <v>-0.01910747033573959</v>
+        <v>-0.01525086626082818</v>
       </c>
       <c r="D64">
-        <v>0.03869620134308874</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0446027573336432</v>
+      </c>
+      <c r="E64">
+        <v>0.03119713825651537</v>
+      </c>
+      <c r="F64">
+        <v>-0.02111738063699233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.147952287829868</v>
+        <v>0.155223655343535</v>
       </c>
       <c r="C65">
-        <v>-0.0406263016490528</v>
+        <v>-0.03954463286993406</v>
       </c>
       <c r="D65">
-        <v>-0.04996858123974909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0400047559798296</v>
+      </c>
+      <c r="E65">
+        <v>0.01058410788299197</v>
+      </c>
+      <c r="F65">
+        <v>-0.06131714947725003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1281088372085572</v>
+        <v>0.115795651111324</v>
       </c>
       <c r="C66">
-        <v>-0.02196389975433606</v>
+        <v>-0.01489211903107266</v>
       </c>
       <c r="D66">
-        <v>0.1378551983744841</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1432230747724202</v>
+      </c>
+      <c r="E66">
+        <v>0.07335567026640441</v>
+      </c>
+      <c r="F66">
+        <v>0.003346796275996699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06376751656883733</v>
+        <v>0.05625573624651733</v>
       </c>
       <c r="C67">
-        <v>-0.007560541925053212</v>
+        <v>-0.004897144763232413</v>
       </c>
       <c r="D67">
-        <v>0.05479709421855369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05868454759734148</v>
+      </c>
+      <c r="E67">
+        <v>0.02416393498955679</v>
+      </c>
+      <c r="F67">
+        <v>0.07210690203699903</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.113361831135189</v>
+        <v>0.1219608234689727</v>
       </c>
       <c r="C68">
-        <v>-0.03121255544175662</v>
+        <v>-0.03837061762576578</v>
       </c>
       <c r="D68">
-        <v>-0.2613273444840077</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.257308463334838</v>
+      </c>
+      <c r="E68">
+        <v>-0.08616876895324019</v>
+      </c>
+      <c r="F68">
+        <v>-0.01633314552912301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04011719207502853</v>
+        <v>0.03950300543186529</v>
       </c>
       <c r="C69">
-        <v>-0.003309183955740915</v>
+        <v>-0.002212585323655956</v>
       </c>
       <c r="D69">
-        <v>0.01041021034694773</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01115431197316585</v>
+      </c>
+      <c r="E69">
+        <v>0.02969581186840113</v>
+      </c>
+      <c r="F69">
+        <v>0.01818384239788605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06953275200941191</v>
+        <v>0.06960647627157213</v>
       </c>
       <c r="C70">
-        <v>0.02264697390544286</v>
+        <v>0.02507829554431322</v>
       </c>
       <c r="D70">
-        <v>0.02801973755402306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03139845928819161</v>
+      </c>
+      <c r="E70">
+        <v>-0.0390499008861513</v>
+      </c>
+      <c r="F70">
+        <v>0.329488440079817</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1325060691800219</v>
+        <v>0.14207153495271</v>
       </c>
       <c r="C71">
-        <v>-0.03628445529797115</v>
+        <v>-0.04346783790531237</v>
       </c>
       <c r="D71">
-        <v>-0.2753608612512062</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.266867059581713</v>
+      </c>
+      <c r="E71">
+        <v>-0.09593564687674574</v>
+      </c>
+      <c r="F71">
+        <v>-0.02153922732032243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1386560360855151</v>
+        <v>0.1445624910609358</v>
       </c>
       <c r="C72">
-        <v>-0.03201867995067892</v>
+        <v>-0.03140223135190091</v>
       </c>
       <c r="D72">
-        <v>0.0008130756848429387</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006327658129072144</v>
+      </c>
+      <c r="E72">
+        <v>0.04329141588869581</v>
+      </c>
+      <c r="F72">
+        <v>-0.0347650455682937</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1995667011948953</v>
+        <v>0.2028161264991925</v>
       </c>
       <c r="C73">
-        <v>-0.02170516143576123</v>
+        <v>-0.01690637787908372</v>
       </c>
       <c r="D73">
-        <v>0.009487325866945518</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01735020679994634</v>
+      </c>
+      <c r="E73">
+        <v>0.0674391588776148</v>
+      </c>
+      <c r="F73">
+        <v>-0.03326336432917919</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0880662427030334</v>
+        <v>0.08853725205729521</v>
       </c>
       <c r="C74">
-        <v>-0.01577414803486917</v>
+        <v>-0.01430575217060537</v>
       </c>
       <c r="D74">
-        <v>0.01254595920426666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01732741821371034</v>
+      </c>
+      <c r="E74">
+        <v>0.04992659890125769</v>
+      </c>
+      <c r="F74">
+        <v>-0.05303894818052066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1314926807847033</v>
+        <v>0.1236541037905043</v>
       </c>
       <c r="C75">
-        <v>-0.03431293906547783</v>
+        <v>-0.03142503847179444</v>
       </c>
       <c r="D75">
-        <v>0.02582116330127547</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03220106874950657</v>
+      </c>
+      <c r="E75">
+        <v>0.06201889928314347</v>
+      </c>
+      <c r="F75">
+        <v>-0.01834025952688895</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08155927065830798</v>
+        <v>0.09282447068805917</v>
       </c>
       <c r="C77">
-        <v>-0.01543911325154159</v>
+        <v>-0.01045597006258528</v>
       </c>
       <c r="D77">
-        <v>0.1186756772039023</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1211281385446951</v>
+      </c>
+      <c r="E77">
+        <v>0.04821663180514416</v>
+      </c>
+      <c r="F77">
+        <v>-0.04278829376442118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1015293779153619</v>
+        <v>0.1015921007921517</v>
       </c>
       <c r="C78">
-        <v>-0.04654368834521516</v>
+        <v>-0.04197217749720406</v>
       </c>
       <c r="D78">
-        <v>0.1080953567983648</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1080602377275325</v>
+      </c>
+      <c r="E78">
+        <v>0.07989071682210605</v>
+      </c>
+      <c r="F78">
+        <v>-0.04001860714571476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.168906308234111</v>
+        <v>0.1640781310978426</v>
       </c>
       <c r="C79">
-        <v>-0.03104647717257564</v>
+        <v>-0.02840958864741292</v>
       </c>
       <c r="D79">
-        <v>0.01087806849218831</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01773296903813247</v>
+      </c>
+      <c r="E79">
+        <v>0.05079781495715172</v>
+      </c>
+      <c r="F79">
+        <v>-0.0134820823762225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08071201086108469</v>
+        <v>0.07926437319319024</v>
       </c>
       <c r="C80">
-        <v>-0.004019591557641582</v>
+        <v>-0.001188127145790466</v>
       </c>
       <c r="D80">
-        <v>0.05141744722013414</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05122364680541861</v>
+      </c>
+      <c r="E80">
+        <v>0.03586718386238765</v>
+      </c>
+      <c r="F80">
+        <v>0.05978212930016556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1182291171002701</v>
+        <v>0.1125917629139</v>
       </c>
       <c r="C81">
-        <v>-0.03584529214499869</v>
+        <v>-0.03429933042154593</v>
       </c>
       <c r="D81">
-        <v>0.006764920288687851</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01241447786286035</v>
+      </c>
+      <c r="E81">
+        <v>0.05645617931066864</v>
+      </c>
+      <c r="F81">
+        <v>-0.01035179249413463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1634721095785749</v>
+        <v>0.1618607461107722</v>
       </c>
       <c r="C82">
-        <v>-0.03062419466750507</v>
+        <v>-0.02943960370930386</v>
       </c>
       <c r="D82">
-        <v>0.007119219043943604</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005750960479132737</v>
+      </c>
+      <c r="E82">
+        <v>0.03904992650416867</v>
+      </c>
+      <c r="F82">
+        <v>-0.09832215104043146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05728276034516928</v>
+        <v>0.05247478300475522</v>
       </c>
       <c r="C83">
-        <v>-0.005629343711203204</v>
+        <v>-0.003342057160925928</v>
       </c>
       <c r="D83">
-        <v>0.03852741014828807</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03990481606149984</v>
+      </c>
+      <c r="E83">
+        <v>-0.008298673023540933</v>
+      </c>
+      <c r="F83">
+        <v>0.04069847955769095</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05883785576527303</v>
+        <v>0.05451947188997232</v>
       </c>
       <c r="C84">
-        <v>-0.01396351691984334</v>
+        <v>-0.01089670464348154</v>
       </c>
       <c r="D84">
-        <v>0.07711358301840618</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07782447890182739</v>
+      </c>
+      <c r="E84">
+        <v>0.01753553100946437</v>
+      </c>
+      <c r="F84">
+        <v>-0.003184523068967401</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1396056305722695</v>
+        <v>0.1345165629179939</v>
       </c>
       <c r="C85">
-        <v>-0.03427382428270696</v>
+        <v>-0.03231088133937463</v>
       </c>
       <c r="D85">
-        <v>0.006987570685375547</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01149907715532903</v>
+      </c>
+      <c r="E85">
+        <v>0.04683838489525585</v>
+      </c>
+      <c r="F85">
+        <v>-0.05906541231501829</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08262586817237268</v>
+        <v>0.07889821134615502</v>
       </c>
       <c r="C86">
-        <v>0.005171688611298588</v>
+        <v>0.00831540909440745</v>
       </c>
       <c r="D86">
-        <v>0.02003447961181023</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04816143387499182</v>
+      </c>
+      <c r="E86">
+        <v>0.08878903101848601</v>
+      </c>
+      <c r="F86">
+        <v>0.8289442678796165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09477089099861435</v>
+        <v>0.09180610877115865</v>
       </c>
       <c r="C87">
-        <v>-0.03042371327757043</v>
+        <v>-0.022142304498216</v>
       </c>
       <c r="D87">
-        <v>0.07304272886103931</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09115496206849208</v>
+      </c>
+      <c r="E87">
+        <v>-0.05895926103439977</v>
+      </c>
+      <c r="F87">
+        <v>-0.07009514799331838</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06218712893411209</v>
+        <v>0.06102750373253723</v>
       </c>
       <c r="C88">
-        <v>-0.006669885634952482</v>
+        <v>-0.003682588045944964</v>
       </c>
       <c r="D88">
-        <v>0.05077841841308898</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05103550105902883</v>
+      </c>
+      <c r="E88">
+        <v>0.03127880087098499</v>
+      </c>
+      <c r="F88">
+        <v>-0.0006278526700602953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1240109028839317</v>
+        <v>0.1310695332492525</v>
       </c>
       <c r="C89">
-        <v>-0.01181718877832579</v>
+        <v>-0.0184702698232246</v>
       </c>
       <c r="D89">
-        <v>-0.2364796260738231</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2395714432418577</v>
+      </c>
+      <c r="E89">
+        <v>-0.0870905990553149</v>
+      </c>
+      <c r="F89">
+        <v>-0.008232553191537139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1434278063009001</v>
+        <v>0.1571764126348263</v>
       </c>
       <c r="C90">
-        <v>-0.03245987866122964</v>
+        <v>-0.04040026881425095</v>
       </c>
       <c r="D90">
-        <v>-0.2622117974878799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2649520957895257</v>
+      </c>
+      <c r="E90">
+        <v>-0.1167215026379554</v>
+      </c>
+      <c r="F90">
+        <v>-0.007818889509858002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1248745853436367</v>
+        <v>0.1212723010525547</v>
       </c>
       <c r="C91">
-        <v>-0.02522196101574658</v>
+        <v>-0.02408711994508496</v>
       </c>
       <c r="D91">
-        <v>-0.01846643785821398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01341170194712385</v>
+      </c>
+      <c r="E91">
+        <v>0.0575940997114907</v>
+      </c>
+      <c r="F91">
+        <v>0.01434638164639889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.144252327137189</v>
+        <v>0.150557745837722</v>
       </c>
       <c r="C92">
-        <v>-0.02359766278886636</v>
+        <v>-0.03143686382015071</v>
       </c>
       <c r="D92">
-        <v>-0.2888352558289793</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2898520883584481</v>
+      </c>
+      <c r="E92">
+        <v>-0.1055252792614419</v>
+      </c>
+      <c r="F92">
+        <v>0.007419096809631319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1486417873596927</v>
+        <v>0.1598261191518922</v>
       </c>
       <c r="C93">
-        <v>-0.0291330744401535</v>
+        <v>-0.03548821052237176</v>
       </c>
       <c r="D93">
-        <v>-0.2591516123735129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2582369080194339</v>
+      </c>
+      <c r="E93">
+        <v>-0.07098088683282981</v>
+      </c>
+      <c r="F93">
+        <v>-0.01309141256393936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1310987760350678</v>
+        <v>0.1234001219186233</v>
       </c>
       <c r="C94">
-        <v>-0.03065997194842246</v>
+        <v>-0.02706132873856526</v>
       </c>
       <c r="D94">
-        <v>0.04140068235617621</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0457009869113458</v>
+      </c>
+      <c r="E94">
+        <v>0.06405911022597267</v>
+      </c>
+      <c r="F94">
+        <v>-0.02308217274027915</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1269001347156567</v>
+        <v>0.1293324652330983</v>
       </c>
       <c r="C95">
-        <v>-0.01267293142050568</v>
+        <v>-0.00718379147261249</v>
       </c>
       <c r="D95">
-        <v>0.08954609413380042</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1006881076364125</v>
+      </c>
+      <c r="E95">
+        <v>0.06299514664182639</v>
+      </c>
+      <c r="F95">
+        <v>0.03201080588255456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.151474593370411</v>
+        <v>0.138149811238442</v>
       </c>
       <c r="C96">
-        <v>0.9826076039545812</v>
+        <v>0.9834305069224459</v>
       </c>
       <c r="D96">
-        <v>-0.02800976647577855</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05557303629792005</v>
+      </c>
+      <c r="E96">
+        <v>0.05364676898078951</v>
+      </c>
+      <c r="F96">
+        <v>-0.04279459627941885</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1894690345364121</v>
+        <v>0.1933730569400814</v>
       </c>
       <c r="C97">
-        <v>-0.001767411941403239</v>
+        <v>-0.0002254624342675176</v>
       </c>
       <c r="D97">
-        <v>-0.0239967793356945</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02754145084384263</v>
+      </c>
+      <c r="E97">
+        <v>0.01878037035076191</v>
+      </c>
+      <c r="F97">
+        <v>0.1804899561798756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1953882796505099</v>
+        <v>0.2012436733326954</v>
       </c>
       <c r="C98">
-        <v>-0.01579951172628628</v>
+        <v>-0.01084875890990128</v>
       </c>
       <c r="D98">
-        <v>0.005823806685017866</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009696428181306919</v>
+      </c>
+      <c r="E98">
+        <v>-0.088183587021553</v>
+      </c>
+      <c r="F98">
+        <v>0.07243527088868275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05760862250790374</v>
+        <v>0.05722622514365529</v>
       </c>
       <c r="C99">
-        <v>0.0004577122876293723</v>
+        <v>0.002562692095067741</v>
       </c>
       <c r="D99">
-        <v>0.03878342294925398</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04389339267945011</v>
+      </c>
+      <c r="E99">
+        <v>0.02617490681728115</v>
+      </c>
+      <c r="F99">
+        <v>0.0111895493827575</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1471895860319037</v>
+        <v>0.1343967155534238</v>
       </c>
       <c r="C100">
-        <v>0.03528503646578338</v>
+        <v>0.0469752341661332</v>
       </c>
       <c r="D100">
-        <v>0.3973091369882506</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3617489099100448</v>
+      </c>
+      <c r="E100">
+        <v>-0.8933662697922602</v>
+      </c>
+      <c r="F100">
+        <v>0.0168404734402591</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02522967951587352</v>
+        <v>0.02768545680496178</v>
       </c>
       <c r="C101">
-        <v>-0.009569715330589706</v>
+        <v>-0.009088208689067083</v>
       </c>
       <c r="D101">
-        <v>0.03153823307341432</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03056396705043499</v>
+      </c>
+      <c r="E101">
+        <v>0.01613188560950925</v>
+      </c>
+      <c r="F101">
+        <v>0.02813553762980158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
